--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/STIG V5 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/STIG V5 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5727B91C-2949-4A4C-8E13-A0E71C62AA37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEA3FEB-CAC3-4F55-BAEA-3F767907071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="2850" windowWidth="21075" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Snapshot date:</t>
   </si>
   <si>
-    <t>Technical Debt:</t>
-  </si>
-  <si>
     <t>Generated on:</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=STIG-V5-CAT1,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>ISO Technical Debt:</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
       <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30307</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1104035</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -847,7 +847,7 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +857,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
@@ -868,17 +868,17 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -891,15 +891,15 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -907,15 +907,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -923,32 +923,32 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="23"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="23"/>
       <c r="N9" s="17"/>
@@ -956,26 +956,26 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="E13" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1010,35 +1010,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1075,38 +1075,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1134,35 +1134,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1199,38 +1199,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1258,35 +1258,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1323,38 +1323,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/STIG V5 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/STIG V5 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEA3FEB-CAC3-4F55-BAEA-3F767907071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8392AA-0F40-4724-8D38-04BD7DE96951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Findings summary for CAST under STIG V5</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=STIG-V5,MORE=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=STIG-V5-CAT1,DESC=true,HEADER=NO</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=STIG-V5,MORE=true,HEADER=NO,EVOLUTION=true</t>
   </si>
 </sst>
 </file>
@@ -847,26 +847,26 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
@@ -912,16 +912,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -932,13 +932,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
@@ -946,7 +946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -954,12 +954,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -973,9 +973,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -999,21 +999,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="56.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
@@ -1036,9 +1036,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1061,24 +1061,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.44140625" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
@@ -1104,9 +1104,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1123,21 +1123,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
@@ -1160,9 +1160,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1185,24 +1185,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.85546875" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.88671875" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
@@ -1228,9 +1228,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1247,21 +1247,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
@@ -1284,9 +1284,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1309,24 +1309,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.140625" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.109375" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
@@ -1352,9 +1352,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/STIG V5 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/STIG V5 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8392AA-0F40-4724-8D38-04BD7DE96951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FC494-E57F-42FE-99CF-B5858C991CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -23,11 +23,11 @@
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -393,7 +393,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,16 +417,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,10 +436,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -467,6 +467,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,52 +516,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1255569</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1104035</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1045979</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7C6B5D-AFF1-49EE-BA95-F425847D771E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="10330296" y="207818"/>
+          <a:ext cx="1141228" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -844,29 +854,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -876,7 +886,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
@@ -886,100 +896,108 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="D10" s="23"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+    <row r="14" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -999,21 +1017,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="56.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>39</v>
       </c>
@@ -1061,24 +1079,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.44140625" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
@@ -1104,7 +1122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1123,21 +1141,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
@@ -1185,24 +1203,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.88671875" customWidth="1"/>
-    <col min="2" max="2" width="67.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.85546875" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
@@ -1228,7 +1246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1247,21 +1265,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="52.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>41</v>
       </c>
@@ -1309,24 +1327,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.109375" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.140625" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
